--- a/src/test/resources/testCandidaturesInitial.xlsx
+++ b/src/test/resources/testCandidaturesInitial.xlsx
@@ -388,10 +388,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
